--- a/data/trans_orig/P36BPD06_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD06_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>167855</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>145460</v>
+        <v>146342</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>189532</v>
+        <v>192793</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3388675323136038</v>
+        <v>0.3388675323136039</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2936559002031326</v>
+        <v>0.2954374087908289</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.382630858269856</v>
+        <v>0.3892132648876316</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>270</v>
@@ -762,19 +762,19 @@
         <v>206241</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>185643</v>
+        <v>184453</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>227348</v>
+        <v>228297</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3319378895031866</v>
+        <v>0.3319378895031867</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2987862782766885</v>
+        <v>0.2968712418260196</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3659083192690761</v>
+        <v>0.3674360727974156</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>419</v>
@@ -783,19 +783,19 @@
         <v>374096</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>341784</v>
+        <v>344635</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>404682</v>
+        <v>405508</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3350118037643556</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3060760332091241</v>
+        <v>0.3086288690523147</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3624030507269888</v>
+        <v>0.3631425934688318</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>327485</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>305808</v>
+        <v>302547</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>349880</v>
+        <v>348998</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6611324676863961</v>
+        <v>0.6611324676863962</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6173691417301438</v>
+        <v>0.6107867351123684</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7063440997968666</v>
+        <v>0.704562591209171</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>587</v>
@@ -833,19 +833,19 @@
         <v>415083</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>393976</v>
+        <v>393027</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>435681</v>
+        <v>436871</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6680621104968134</v>
+        <v>0.6680621104968133</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6340916807309238</v>
+        <v>0.6325639272025845</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7012137217233115</v>
+        <v>0.7031287581739802</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>890</v>
@@ -854,19 +854,19 @@
         <v>742568</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>711982</v>
+        <v>711156</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>774880</v>
+        <v>772029</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6649881962356445</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6375969492730112</v>
+        <v>0.6368574065311683</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.693923966790876</v>
+        <v>0.6913711309476853</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>309693</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>280342</v>
+        <v>279401</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>346910</v>
+        <v>345568</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3238766858037034</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2931816009893796</v>
+        <v>0.2921976786360667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.362798799390595</v>
+        <v>0.3613945460357577</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>478</v>
@@ -979,19 +979,19 @@
         <v>362532</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>337463</v>
+        <v>335489</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>392037</v>
+        <v>391721</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3250568811529917</v>
+        <v>0.3250568811529918</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3025795870580413</v>
+        <v>0.3008093466518224</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.351511850704622</v>
+        <v>0.3512287488106342</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>759</v>
@@ -1000,19 +1000,19 @@
         <v>672225</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>630824</v>
+        <v>630810</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>717196</v>
+        <v>715909</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3245121000749306</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3045261203719054</v>
+        <v>0.3045196480054996</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.346221717574575</v>
+        <v>0.3456006273600938</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>646513</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>609296</v>
+        <v>610638</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>675864</v>
+        <v>676805</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6761233141962966</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6372012006094048</v>
+        <v>0.6386054539642422</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7068183990106203</v>
+        <v>0.7078023213639333</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1128</v>
@@ -1050,19 +1050,19 @@
         <v>752755</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>723250</v>
+        <v>723566</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>777824</v>
+        <v>779798</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6749431188470084</v>
+        <v>0.6749431188470083</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6484881492953771</v>
+        <v>0.6487712511893657</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6974204129419586</v>
+        <v>0.6991906533481776</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1753</v>
@@ -1071,19 +1071,19 @@
         <v>1399268</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1354297</v>
+        <v>1355584</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1440669</v>
+        <v>1440683</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6754878999250694</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.653778282425425</v>
+        <v>0.6543993726399059</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6954738796280946</v>
+        <v>0.6954803519945004</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>249906</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>222052</v>
+        <v>222854</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>279405</v>
+        <v>283351</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.239473394990656</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2127829043721166</v>
+        <v>0.2135512258118113</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2677416302494701</v>
+        <v>0.2715225333967851</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>306</v>
@@ -1196,19 +1196,19 @@
         <v>228147</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>203952</v>
+        <v>203255</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>251493</v>
+        <v>252070</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2181437069866837</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1950093029505885</v>
+        <v>0.1943432545846915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2404658745171622</v>
+        <v>0.2410180967758131</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>547</v>
@@ -1217,19 +1217,19 @@
         <v>478053</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>442426</v>
+        <v>441333</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>518253</v>
+        <v>518424</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2287968470267511</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2117460395491681</v>
+        <v>0.2112227437632015</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2480368673553377</v>
+        <v>0.2481183931780156</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>793657</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>764158</v>
+        <v>760212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>821511</v>
+        <v>820709</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7605266050093439</v>
+        <v>0.7605266050093441</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7322583697505299</v>
+        <v>0.7284774666032147</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7872170956278833</v>
+        <v>0.7864487741881886</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1207</v>
@@ -1267,19 +1267,19 @@
         <v>817709</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>794363</v>
+        <v>793786</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>841904</v>
+        <v>842601</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7818562930133165</v>
+        <v>0.7818562930133164</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7595341254828378</v>
+        <v>0.758981903224187</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.804990697049411</v>
+        <v>0.8056567454153083</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1992</v>
@@ -1288,19 +1288,19 @@
         <v>1611367</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1571167</v>
+        <v>1570996</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1646994</v>
+        <v>1648087</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7712031529732489</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7519631326446622</v>
+        <v>0.7518816068219841</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7882539604508314</v>
+        <v>0.7887772562367985</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>110713</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91014</v>
+        <v>91467</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>136992</v>
+        <v>136230</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1137581220636674</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09351735465203977</v>
+        <v>0.09398292970771514</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1407601610082795</v>
+        <v>0.1399779902073827</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>156</v>
@@ -1413,19 +1413,19 @@
         <v>109645</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>92516</v>
+        <v>93385</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>128960</v>
+        <v>128608</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1208996658225047</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1020121012579404</v>
+        <v>0.1029709941624795</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.142197456623663</v>
+        <v>0.1418085404845743</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>266</v>
@@ -1434,19 +1434,19 @@
         <v>220358</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>193127</v>
+        <v>196019</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>249943</v>
+        <v>250344</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1172029419439536</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1027195595927704</v>
+        <v>0.1042575545069087</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1329386786706739</v>
+        <v>0.1331520083392096</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>862515</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>836236</v>
+        <v>836998</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>882214</v>
+        <v>881761</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8862418779363328</v>
+        <v>0.8862418779363326</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8592398389917206</v>
+        <v>0.8600220097926172</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9064826453479602</v>
+        <v>0.9060170702922847</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1162</v>
@@ -1484,19 +1484,19 @@
         <v>797265</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>777950</v>
+        <v>778302</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>814394</v>
+        <v>813525</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8791003341774952</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8578025433763369</v>
+        <v>0.8581914595154255</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8979878987420595</v>
+        <v>0.8970290058375205</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1996</v>
@@ -1505,19 +1505,19 @@
         <v>1659780</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1630195</v>
+        <v>1629794</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1687011</v>
+        <v>1684119</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8827970580560465</v>
+        <v>0.8827970580560462</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.867061321329326</v>
+        <v>0.866847991660791</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8972804404072295</v>
+        <v>0.8957424454930916</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>838166</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>784580</v>
+        <v>787743</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>894144</v>
+        <v>898837</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2416621127736915</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2262120474738118</v>
+        <v>0.2271240141245302</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2578019201534003</v>
+        <v>0.2591548625491674</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1210</v>
@@ -1630,19 +1630,19 @@
         <v>906565</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>858544</v>
+        <v>856369</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>955170</v>
+        <v>953945</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2457229732797417</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2327071691328932</v>
+        <v>0.2321175321317142</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2588972960364741</v>
+        <v>0.2585653636094221</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1991</v>
@@ -1651,19 +1651,19 @@
         <v>1744731</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1671202</v>
+        <v>1668587</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1821151</v>
+        <v>1817274</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2437552452624031</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2334826524879226</v>
+        <v>0.233117281342478</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2544318711127463</v>
+        <v>0.2538902669063475</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2630172</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2574194</v>
+        <v>2569501</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2683758</v>
+        <v>2680595</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7583378872263085</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7421980798465998</v>
+        <v>0.7408451374508327</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7737879525261885</v>
+        <v>0.7728759858754699</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4084</v>
@@ -1701,19 +1701,19 @@
         <v>2782812</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2734207</v>
+        <v>2735432</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2830833</v>
+        <v>2833008</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7542770267202582</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.741102703963526</v>
+        <v>0.7414346363905779</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.767292830867107</v>
+        <v>0.7678824678682861</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6631</v>
@@ -1722,19 +1722,19 @@
         <v>5412984</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5336564</v>
+        <v>5340441</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5486513</v>
+        <v>5489128</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7562447547375969</v>
+        <v>0.756244754737597</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7455681288872539</v>
+        <v>0.7461097330936527</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7665173475120775</v>
+        <v>0.7668827186575221</v>
       </c>
     </row>
     <row r="18">
